--- a/data/ultiquiz_seed.xlsx
+++ b/data/ultiquiz_seed.xlsx
@@ -1,44 +1,323 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielchen/Desktop/UltiQuiz/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC60FD-A2A3-EE47-850C-9FE056C79E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>teamname</t>
+  </si>
+  <si>
+    <t>aliases</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>Carleton College</t>
+  </si>
+  <si>
+    <t>CUT</t>
+  </si>
+  <si>
+    <t>Carleton College,Carleton,CUT,Carleton Ultimate Team,The CUT,The Carleton Ultimate Team</t>
+  </si>
+  <si>
+    <t>d1m</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Mamabird</t>
+  </si>
+  <si>
+    <t>Colorado,Mamabird,Bird</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Ego</t>
+  </si>
+  <si>
+    <t>Oregon,U of O,Ego</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>ZooDisc</t>
+  </si>
+  <si>
+    <t>Massachusetts,UMass,ZooDisc</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Darkside</t>
+  </si>
+  <si>
+    <t>North Carolina,UNC,Darkside</t>
+  </si>
+  <si>
+    <t>5T</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Cal Poly-SLO</t>
+  </si>
+  <si>
+    <t>Cal Poly,Cal Poly-SLO,California Polytechnic,SLO,Slocore,core</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Spank</t>
+  </si>
+  <si>
+    <t>Penn State,PSU,Spank</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Western Washington</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>Western,Western Washington,Western Washington University,WWU,Dirt</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9T</t>
+  </si>
+  <si>
+    <t>13T</t>
+  </si>
+  <si>
+    <t>15T</t>
+  </si>
+  <si>
+    <t>17T</t>
+  </si>
+  <si>
+    <t>19T</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Northeastern</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Washington University</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Ottowa</t>
+  </si>
+  <si>
+    <t>Oregon State</t>
+  </si>
+  <si>
+    <t>California-Santa Cruz</t>
+  </si>
+  <si>
+    <t>MagnUM</t>
+  </si>
+  <si>
+    <t>Huskies</t>
+  </si>
+  <si>
+    <t>Zion Curtain</t>
+  </si>
+  <si>
+    <t>Chill</t>
+  </si>
+  <si>
+    <t>TUFF</t>
+  </si>
+  <si>
+    <t>Ursa Major</t>
+  </si>
+  <si>
+    <t>Jojah</t>
+  </si>
+  <si>
+    <t>Contra</t>
+  </si>
+  <si>
+    <t>Thunderbirds</t>
+  </si>
+  <si>
+    <t>Gee-Gees</t>
+  </si>
+  <si>
+    <t>Slugs</t>
+  </si>
+  <si>
+    <t>Beavers</t>
+  </si>
+  <si>
+    <t>Michigan,Umich,MagnUM</t>
+  </si>
+  <si>
+    <t>Northeastern,Huskies</t>
+  </si>
+  <si>
+    <t>Utah,University of Utah,Zion Curtain</t>
+  </si>
+  <si>
+    <t>Vermont,University of Vermont,UVM,Chill</t>
+  </si>
+  <si>
+    <t>Texas,UT,TUFF</t>
+  </si>
+  <si>
+    <t>California,Cal-Berkeley,Cal Berkeley,Berkeley,Ursa Major</t>
+  </si>
+  <si>
+    <t>Georgia,University of Georgia,UGA,Jojah</t>
+  </si>
+  <si>
+    <t>Washington University,WashU,Wash U,Contra</t>
+  </si>
+  <si>
+    <t>British Columbia,UBC,TBirds,Thunderbirds</t>
+  </si>
+  <si>
+    <t>Ottowa,Gee-Gees,GeeGees,Gee Gees</t>
+  </si>
+  <si>
+    <t>California-Santa Cruz,UC-Santa Cruz,UC Santa Cruz,UCSC,Santa Cruz,Slugs</t>
+  </si>
+  <si>
+    <t>Oregon State,OSU,Beavers,Beavs,Beaves</t>
+  </si>
+  <si>
+    <t>Slocore</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,14 +343,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,195 +684,445 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>school</v>
-      </c>
-      <c r="B1" t="str">
-        <v>teamname</v>
-      </c>
-      <c r="C1" t="str">
-        <v>aliases</v>
-      </c>
-      <c r="D1" t="str">
-        <v>division</v>
-      </c>
-      <c r="E1" t="str">
-        <v>finish</v>
-      </c>
-      <c r="F1" t="str">
-        <v>rank</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Carleton College</v>
-      </c>
-      <c r="B2" t="str">
-        <v>CUT</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Carleton College,Carleton,CUT,Carleton Ultimate Team,The CUT,The Carleton Ultimate Team</v>
-      </c>
-      <c r="D2" t="str">
-        <v>d1m</v>
-      </c>
-      <c r="E2" t="str">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Colorado</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mamabird</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Colorado,Mamabird,Bird</v>
-      </c>
-      <c r="D3" t="str">
-        <v>d1m</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Oregon</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Ego</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Oregon,U of O,Ego</v>
-      </c>
-      <c r="D4" t="str">
-        <v>d1m</v>
-      </c>
-      <c r="E4" t="str">
-        <v>3T</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Massachusetts</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ZooDisc</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Massachusetts,UMass,ZooDisc</v>
-      </c>
-      <c r="D5" t="str">
-        <v>d1m</v>
-      </c>
-      <c r="E5" t="str">
-        <v>3T</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>North Carolina</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Darkside</v>
-      </c>
-      <c r="C6" t="str">
-        <v>North Carolina,UNC,Darkside</v>
-      </c>
-      <c r="D6" t="str">
-        <v>d1m</v>
-      </c>
-      <c r="E6" t="str">
-        <v>5T</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Cal Poly-SLO</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Slocore</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Cal Poly,Cal Poly-SLO,California Polytechnic,SLO,Slocore,core</v>
-      </c>
-      <c r="D7" t="str">
-        <v>d1m</v>
-      </c>
-      <c r="E7" t="str">
-        <v>5T</v>
-      </c>
-      <c r="F7" t="str">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Penn State</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Spank</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Penn State,PSU,Spank</v>
-      </c>
-      <c r="D8" t="str">
-        <v>d1m</v>
-      </c>
-      <c r="E8" t="str">
-        <v>5T</v>
-      </c>
-      <c r="F8" t="str">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Western Washington</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Dirt</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Western,Western Washington,Western Washington University,WWU,Dirt</v>
-      </c>
-      <c r="D9" t="str">
-        <v>d1m</v>
-      </c>
-      <c r="E9" t="str">
-        <v>5T</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError sqref="A1:F6 F10 F11:F21 A8:F9 A7 C7:F7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ultiquiz_seed.xlsx
+++ b/data/ultiquiz_seed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielchen/Desktop/UltiQuiz/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC60FD-A2A3-EE47-850C-9FE056C79E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D26BD-34AF-204A-9C9C-0ECF7662910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,9 +280,6 @@
     <t>Texas,UT,TUFF</t>
   </si>
   <si>
-    <t>California,Cal-Berkeley,Cal Berkeley,Berkeley,Ursa Major</t>
-  </si>
-  <si>
     <t>Georgia,University of Georgia,UGA,Jojah</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>Slocore</t>
+  </si>
+  <si>
+    <t>California,Cal-Berkeley,Cal Berkeley,UC Berkeley,Berkeley,Ursa Major</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,7 +823,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -986,7 +986,7 @@
         <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1006,7 +1006,7 @@
         <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1026,7 +1026,7 @@
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1046,7 +1046,7 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1066,7 +1066,7 @@
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1086,7 +1086,7 @@
         <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1106,7 +1106,7 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>

--- a/data/ultiquiz_seed.xlsx
+++ b/data/ultiquiz_seed.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -822,9 +822,49 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>British Columbia</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Thunderbirds</v>
+      </c>
+      <c r="C22" t="str">
+        <v>British Columbia,UBC,TBirds,Thunderbirds</v>
+      </c>
+      <c r="D22" t="str">
+        <v>d1w</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Carleton College</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Syzygy</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Carleton,Syzygy</v>
+      </c>
+      <c r="D23" t="str">
+        <v>d1w</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/ultiquiz_seed.xlsx
+++ b/data/ultiquiz_seed.xlsx
@@ -810,7 +810,7 @@
         <v>Beavers</v>
       </c>
       <c r="C21" t="str">
-        <v>Oregon State,OSU,Beavers,Beavs,Beaves</v>
+        <v>Oregon State,OSU,Beavers,Beavs,Beavs</v>
       </c>
       <c r="D21" t="str">
         <v>d1m</v>

--- a/data/ultiquiz_seed.xlsx
+++ b/data/ultiquiz_seed.xlsx
@@ -670,7 +670,7 @@
         <v>TUFF</v>
       </c>
       <c r="C14" t="str">
-        <v>Texas,UT,TUFF</v>
+        <v>Texas,UT Austin,TUFF</v>
       </c>
       <c r="D14" t="str">
         <v>d1m</v>

--- a/data/ultiquiz_seed.xlsx
+++ b/data/ultiquiz_seed.xlsx
@@ -690,7 +690,7 @@
         <v>Ursa Major</v>
       </c>
       <c r="C15" t="str">
-        <v>California,Cal-Berkeley,Cal Berkeley,UC Berkeley,Berkeley,Ursa Major</v>
+        <v>California,Cal-Berkeley,Cal Berkeley,Cal,UC Berkeley,Berkeley,Ursa Major</v>
       </c>
       <c r="D15" t="str">
         <v>d1m</v>
